--- a/BackTest/2020-01-23 BackTest SNT.xlsx
+++ b/BackTest/2020-01-23 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>736100.0108</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,20 +486,13 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,19 @@
         <v>712100.0108</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="J4" t="n">
         <v>12.19</v>
       </c>
-      <c r="K4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -578,24 +556,19 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>12.19</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,24 +593,23 @@
         <v>1018388.8961</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>12.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,24 +634,21 @@
         <v>1018388.8961</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,24 +673,23 @@
         <v>1018388.8961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>12.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,24 +714,23 @@
         <v>1043352.473335772</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>12.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,24 +755,23 @@
         <v>1042579.679535772</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>12.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,22 +798,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -872,24 +835,23 @@
         <v>1042670.671335772</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>12.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,24 +876,21 @@
         <v>1042670.671335772</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +917,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,22 +956,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +995,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +1034,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1073,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1112,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,22 +1151,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,22 +1190,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1229,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1268,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1307,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1346,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1385,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1424,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1544,24 +1461,21 @@
         <v>368527.5973583108</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>0.9974610336341264</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1586,24 +1500,15 @@
         <v>368527.5973583108</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9974610336341264</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1628,18 +1533,15 @@
         <v>352327.5973583108</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1664,18 +1566,15 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1700,18 +1599,15 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1736,18 +1632,15 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1772,18 +1665,15 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1810,16 +1700,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1844,18 +1731,15 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1880,18 +1764,15 @@
         <v>378382.4117583108</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1916,18 +1797,15 @@
         <v>360070.7002583108</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1954,16 +1832,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1990,16 +1865,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2024,18 +1896,15 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2062,16 +1931,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2096,18 +1962,15 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2132,18 +1995,15 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2168,18 +2028,15 @@
         <v>234406.6227583108</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2204,18 +2061,15 @@
         <v>234406.6227583108</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2240,18 +2094,15 @@
         <v>234463.0668583108</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2278,16 +2129,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2314,16 +2162,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2350,16 +2195,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2386,16 +2228,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2422,16 +2261,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2456,18 +2292,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2492,18 +2325,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2528,18 +2358,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2566,16 +2393,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2600,18 +2424,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2636,18 +2457,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2672,18 +2490,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2708,18 +2523,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2744,18 +2556,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2780,18 +2589,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2816,18 +2622,15 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2852,18 +2655,15 @@
         <v>239363.8097583108</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2888,18 +2688,15 @@
         <v>239363.8097583108</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2924,18 +2721,15 @@
         <v>273078.5876583108</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2962,16 +2756,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2998,16 +2789,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3034,16 +2822,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3070,16 +2855,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3106,16 +2888,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3142,16 +2921,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3178,16 +2954,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3214,16 +2987,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3248,18 +3018,15 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3284,18 +3051,15 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3320,18 +3084,15 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3356,18 +3117,15 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3394,16 +3152,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3428,18 +3183,15 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3466,16 +3218,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3500,18 +3249,15 @@
         <v>189997.5517583108</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3536,18 +3282,15 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3572,18 +3315,15 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3608,18 +3348,15 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3644,18 +3381,15 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3680,18 +3414,15 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3718,16 +3449,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3752,18 +3480,15 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3788,18 +3513,15 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3824,18 +3546,15 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3862,16 +3581,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3898,16 +3614,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3934,16 +3647,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3968,18 +3678,15 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4006,16 +3713,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4042,16 +3746,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4078,16 +3779,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4114,16 +3812,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4150,16 +3845,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4186,16 +3878,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4222,16 +3911,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4258,18 +3944,15 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest SNT.xlsx
+++ b/BackTest/2020-01-23 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>736100.0108</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -486,8 +486,12 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.19</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,7 +521,7 @@
         <v>712100.0108</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>12.19</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>12.19</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,7 +564,9 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>12.15</v>
+      </c>
       <c r="J5" t="n">
         <v>12.19</v>
       </c>
@@ -593,11 +603,9 @@
         <v>1018388.8961</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>12.19</v>
       </c>
@@ -634,7 +642,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
@@ -673,11 +681,9 @@
         <v>1018388.8961</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>12.19</v>
       </c>
@@ -714,11 +720,9 @@
         <v>1043352.473335772</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>12.19</v>
       </c>
@@ -755,11 +759,9 @@
         <v>1042579.679535772</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>12.19</v>
       </c>
@@ -835,11 +837,9 @@
         <v>1042670.671335772</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>12.19</v>
       </c>
@@ -876,7 +876,7 @@
         <v>1042670.671335772</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -1461,7 +1461,7 @@
         <v>368527.5973583108</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.9974610336341264</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1500,11 +1500,17 @@
         <v>368527.5973583108</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1533,11 +1539,17 @@
         <v>352327.5973583108</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1566,11 +1578,17 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1599,13 +1617,19 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>1.004023789991797</v>
       </c>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -1632,7 +1656,7 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1665,7 +1689,7 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1731,7 +1755,7 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1764,7 +1788,7 @@
         <v>378382.4117583108</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1797,7 +1821,7 @@
         <v>360070.7002583108</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1830,7 +1854,7 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1896,7 +1920,7 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1929,7 +1953,7 @@
         <v>361058.1928583108</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1962,7 +1986,7 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1995,7 +2019,7 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2028,7 +2052,7 @@
         <v>234406.6227583108</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2061,7 +2085,7 @@
         <v>234406.6227583108</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2094,7 +2118,7 @@
         <v>234463.0668583108</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2127,7 +2151,7 @@
         <v>234421.9190583108</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2160,7 +2184,7 @@
         <v>234421.9190583108</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2193,7 +2217,7 @@
         <v>253402.6050583108</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2226,7 +2250,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2259,7 +2283,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2292,7 +2316,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2325,7 +2349,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2358,7 +2382,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2391,7 +2415,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2424,7 +2448,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2457,7 +2481,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2490,7 +2514,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2523,7 +2547,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2556,7 +2580,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2589,7 +2613,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2622,7 +2646,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2655,7 +2679,7 @@
         <v>239363.8097583108</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2688,7 +2712,7 @@
         <v>239363.8097583108</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2721,7 +2745,7 @@
         <v>273078.5876583108</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2886,7 +2910,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2919,7 +2943,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2952,7 +2976,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2985,7 +3009,7 @@
         <v>105032.8519583108</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3018,7 +3042,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3051,7 +3075,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3084,7 +3108,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3117,7 +3141,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3150,7 +3174,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3183,7 +3207,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3216,7 +3240,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3249,7 +3273,7 @@
         <v>189997.5517583108</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3282,7 +3306,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3315,7 +3339,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3348,7 +3372,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3381,7 +3405,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3414,7 +3438,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3447,7 +3471,7 @@
         <v>46633.17535831085</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3480,7 +3504,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3513,7 +3537,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3546,7 +3570,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3579,7 +3603,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3612,7 +3636,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3645,7 +3669,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3678,7 +3702,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3711,7 +3735,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3744,7 +3768,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3777,7 +3801,7 @@
         <v>-430725.0525416891</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3810,7 +3834,7 @@
         <v>-449525.0525416891</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3843,7 +3867,7 @@
         <v>-539645.6800416892</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3876,7 +3900,7 @@
         <v>-518645.6800416892</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3909,7 +3933,7 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3942,7 +3966,7 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3953,6 +3977,6 @@
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest SNT.xlsx
+++ b/BackTest/2020-01-23 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>736100.0108</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>736100.0108</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>712100.0108</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>1024256.9741</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,17 +583,11 @@
         <v>1018388.8961</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,17 +616,11 @@
         <v>1018388.8961</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,17 +649,11 @@
         <v>1018388.8961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,17 +682,11 @@
         <v>1043352.473335772</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,17 +715,11 @@
         <v>1042579.679535772</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -840,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -879,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -918,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -957,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -993,17 +913,11 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1032,17 +946,11 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1071,17 +979,11 @@
         <v>1050453.514835772</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1110,17 +1012,11 @@
         <v>1054115.679197042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1149,17 +1045,11 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1191,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1227,17 +1111,11 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1266,17 +1144,11 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1308,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1347,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1383,17 +1243,11 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1425,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1464,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1503,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1581,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1617,19 +1441,13 @@
         <v>362582.4117583108</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.004023789991797</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -1788,7 +1606,7 @@
         <v>378382.4117583108</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1821,7 +1639,7 @@
         <v>360070.7002583108</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1854,7 +1672,7 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1920,7 +1738,7 @@
         <v>358277.2313583108</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1953,7 +1771,7 @@
         <v>361058.1928583108</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1986,7 +1804,7 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2118,7 +1936,7 @@
         <v>234463.0668583108</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2151,7 +1969,7 @@
         <v>234421.9190583108</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2184,7 +2002,7 @@
         <v>234421.9190583108</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2217,7 +2035,7 @@
         <v>253402.6050583108</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2250,7 +2068,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2283,7 +2101,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2316,7 +2134,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2349,7 +2167,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2382,7 +2200,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2415,7 +2233,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2448,7 +2266,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2481,7 +2299,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2514,7 +2332,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2580,7 +2398,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2613,7 +2431,7 @@
         <v>228632.8098583109</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2745,7 +2563,7 @@
         <v>273078.5876583108</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2910,7 +2728,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2943,7 +2761,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2976,7 +2794,7 @@
         <v>154769.8518583108</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3009,7 +2827,7 @@
         <v>105032.8519583108</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3042,7 +2860,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3075,7 +2893,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3108,7 +2926,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3141,7 +2959,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3174,7 +2992,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3207,7 +3025,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3240,7 +3058,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3273,7 +3091,7 @@
         <v>189997.5517583108</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3306,7 +3124,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3339,7 +3157,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3372,7 +3190,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3405,7 +3223,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3438,7 +3256,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3471,7 +3289,7 @@
         <v>46633.17535831085</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3504,7 +3322,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3537,10 +3355,14 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3570,11 +3392,17 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3603,11 +3431,17 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3636,10 +3470,14 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12.3</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3669,11 +3507,19 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3702,11 +3548,17 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3735,7 +3587,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3768,7 +3620,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3801,7 +3653,7 @@
         <v>-430725.0525416891</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3834,7 +3686,7 @@
         <v>-449525.0525416891</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3867,7 +3719,7 @@
         <v>-539645.6800416892</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3900,10 +3752,14 @@
         <v>-518645.6800416892</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12.25</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3933,11 +3789,17 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3966,17 +3828,23 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest SNT.xlsx
+++ b/BackTest/2020-01-23 BackTest SNT.xlsx
@@ -583,7 +583,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1018388.8961</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1043352.473335772</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1042579.679535772</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1005730.514835772</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1050453.514835772</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1054115.679197042</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1053342.885397041</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>378382.4117583108</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>358800.4260583108</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>105032.8519583108</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>105132.8519583108</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>100511.4697583109</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>178497.2163583108</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>189997.5517583108</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>180264.8972583108</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>38000.91705831085</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>46633.17535831085</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,14 +3355,10 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>12.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3392,17 +3388,11 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3434,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3470,14 +3454,10 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3507,19 +3487,11 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3548,17 +3520,11 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3587,7 +3553,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3620,7 +3586,7 @@
         <v>-173725.0525416891</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3653,7 +3619,7 @@
         <v>-430725.0525416891</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3719,11 +3685,17 @@
         <v>-539645.6800416892</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12.26</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3757,10 +3729,12 @@
       <c r="I101" t="n">
         <v>12.25</v>
       </c>
-      <c r="J101" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3789,15 +3763,13 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>12.25</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3828,15 +3800,13 @@
         <v>-769419.2120416892</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>12.25</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">

--- a/BackTest/2020-01-23 BackTest SNT.xlsx
+++ b/BackTest/2020-01-23 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2444.6644</v>
       </c>
       <c r="G2" t="n">
-        <v>736100.0108</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>2738.2057</v>
       </c>
       <c r="G3" t="n">
-        <v>736100.0108</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>12.19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.19</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>24000</v>
       </c>
       <c r="G4" t="n">
-        <v>712100.0108</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,23 @@
         <v>312156.9633</v>
       </c>
       <c r="G5" t="n">
-        <v>1024256.9741</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>12.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,23 @@
         <v>5868.078</v>
       </c>
       <c r="G6" t="n">
-        <v>1018388.8961</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +619,23 @@
         <v>124393.8033</v>
       </c>
       <c r="G7" t="n">
-        <v>1018388.8961</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +657,23 @@
         <v>33500</v>
       </c>
       <c r="G8" t="n">
-        <v>1018388.8961</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +695,23 @@
         <v>24963.57723577236</v>
       </c>
       <c r="G9" t="n">
-        <v>1043352.473335772</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +733,21 @@
         <v>772.7938</v>
       </c>
       <c r="G10" t="n">
-        <v>1042579.679535772</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +769,21 @@
         <v>9.0082</v>
       </c>
       <c r="G11" t="n">
-        <v>1042570.671335772</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +805,21 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>1042670.671335772</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +841,21 @@
         <v>15296.0345</v>
       </c>
       <c r="G13" t="n">
-        <v>1042670.671335772</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +877,21 @@
         <v>23969.5058</v>
       </c>
       <c r="G14" t="n">
-        <v>1042670.671335772</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +913,21 @@
         <v>406.8349</v>
       </c>
       <c r="G15" t="n">
-        <v>1042670.671335772</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +949,21 @@
         <v>36940.1565</v>
       </c>
       <c r="G16" t="n">
-        <v>1005730.514835772</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +985,21 @@
         <v>1900</v>
       </c>
       <c r="G17" t="n">
-        <v>1005730.514835772</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1021,21 @@
         <v>44723</v>
       </c>
       <c r="G18" t="n">
-        <v>1050453.514835772</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1057,21 @@
         <v>3662.164361269325</v>
       </c>
       <c r="G19" t="n">
-        <v>1054115.679197042</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1093,21 @@
         <v>772.7938</v>
       </c>
       <c r="G20" t="n">
-        <v>1053342.885397041</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1129,21 @@
         <v>20286.0463</v>
       </c>
       <c r="G21" t="n">
-        <v>1053342.885397041</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1165,21 @@
         <v>1564.8377</v>
       </c>
       <c r="G22" t="n">
-        <v>1053342.885397041</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1201,21 @@
         <v>18149.116</v>
       </c>
       <c r="G23" t="n">
-        <v>1053342.885397041</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1237,21 @@
         <v>42074</v>
       </c>
       <c r="G24" t="n">
-        <v>1053342.885397041</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1273,21 @@
         <v>4207</v>
       </c>
       <c r="G25" t="n">
-        <v>1053342.885397041</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1309,21 @@
         <v>25687</v>
       </c>
       <c r="G26" t="n">
-        <v>1053342.885397041</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1345,21 @@
         <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>1054342.885397041</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1381,21 @@
         <v>685815.2880387306</v>
       </c>
       <c r="G28" t="n">
-        <v>368527.5973583108</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1417,21 @@
         <v>100000</v>
       </c>
       <c r="G29" t="n">
-        <v>368527.5973583108</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1453,21 @@
         <v>16200</v>
       </c>
       <c r="G30" t="n">
-        <v>352327.5973583108</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1489,21 @@
         <v>10254.8144</v>
       </c>
       <c r="G31" t="n">
-        <v>362582.4117583108</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1525,21 @@
         <v>30349.0249</v>
       </c>
       <c r="G32" t="n">
-        <v>362582.4117583108</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1561,21 @@
         <v>161963.4</v>
       </c>
       <c r="G33" t="n">
-        <v>362582.4117583108</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1597,21 @@
         <v>42200</v>
       </c>
       <c r="G34" t="n">
-        <v>362582.4117583108</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1633,21 @@
         <v>365958.8604</v>
       </c>
       <c r="G35" t="n">
-        <v>362582.4117583108</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1669,21 @@
         <v>89807.86040000001</v>
       </c>
       <c r="G36" t="n">
-        <v>362582.4117583108</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1705,21 @@
         <v>15800</v>
       </c>
       <c r="G37" t="n">
-        <v>378382.4117583108</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1741,21 @@
         <v>18311.7115</v>
       </c>
       <c r="G38" t="n">
-        <v>360070.7002583108</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1777,21 @@
         <v>1793.4689</v>
       </c>
       <c r="G39" t="n">
-        <v>358277.2313583108</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1813,21 @@
         <v>1945.1757</v>
       </c>
       <c r="G40" t="n">
-        <v>358277.2313583108</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1849,21 @@
         <v>1881.6792</v>
       </c>
       <c r="G41" t="n">
-        <v>358277.2313583108</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1885,21 @@
         <v>2780.9615</v>
       </c>
       <c r="G42" t="n">
-        <v>361058.1928583108</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1921,21 @@
         <v>2257.7668</v>
       </c>
       <c r="G43" t="n">
-        <v>358800.4260583108</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1957,21 @@
         <v>122527.2263</v>
       </c>
       <c r="G44" t="n">
-        <v>358800.4260583108</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1993,21 @@
         <v>124393.8033</v>
       </c>
       <c r="G45" t="n">
-        <v>234406.6227583108</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2029,21 @@
         <v>564.4417</v>
       </c>
       <c r="G46" t="n">
-        <v>234406.6227583108</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2065,21 @@
         <v>56.4441</v>
       </c>
       <c r="G47" t="n">
-        <v>234463.0668583108</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2101,21 @@
         <v>41.1478</v>
       </c>
       <c r="G48" t="n">
-        <v>234421.9190583108</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2137,21 @@
         <v>466.8498</v>
       </c>
       <c r="G49" t="n">
-        <v>234421.9190583108</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2173,21 @@
         <v>18980.686</v>
       </c>
       <c r="G50" t="n">
-        <v>253402.6050583108</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2209,21 @@
         <v>24769.7952</v>
       </c>
       <c r="G51" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2245,21 @@
         <v>14605.6379</v>
       </c>
       <c r="G52" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2281,21 @@
         <v>1128.8833</v>
       </c>
       <c r="G53" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2317,21 @@
         <v>30349.0249</v>
       </c>
       <c r="G54" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2353,21 @@
         <v>45000</v>
       </c>
       <c r="G55" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2389,21 @@
         <v>73737</v>
       </c>
       <c r="G56" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2425,21 @@
         <v>24000</v>
       </c>
       <c r="G57" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2461,21 @@
         <v>69316.2371</v>
       </c>
       <c r="G58" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2497,21 @@
         <v>480287.625</v>
       </c>
       <c r="G59" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2533,21 @@
         <v>65549</v>
       </c>
       <c r="G60" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2569,21 @@
         <v>317176.9112</v>
       </c>
       <c r="G61" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2605,21 @@
         <v>23687.0358</v>
       </c>
       <c r="G62" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2641,21 @@
         <v>41.9149</v>
       </c>
       <c r="G63" t="n">
-        <v>228632.8098583109</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2677,21 @@
         <v>10730.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>239363.8097583108</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2713,21 @@
         <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>239363.8097583108</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2749,21 @@
         <v>33714.7779</v>
       </c>
       <c r="G66" t="n">
-        <v>273078.5876583108</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2785,21 @@
         <v>118308.7358</v>
       </c>
       <c r="G67" t="n">
-        <v>154769.8518583108</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2821,21 @@
         <v>22107.3317</v>
       </c>
       <c r="G68" t="n">
-        <v>154769.8518583108</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2857,21 @@
         <v>65929.72990000001</v>
       </c>
       <c r="G69" t="n">
-        <v>154769.8518583108</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2893,21 @@
         <v>52616.3279</v>
       </c>
       <c r="G70" t="n">
-        <v>154769.8518583108</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1.004844134536506</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2929,15 @@
         <v>220306.8748</v>
       </c>
       <c r="G71" t="n">
-        <v>154769.8518583108</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2959,15 @@
         <v>49776.933</v>
       </c>
       <c r="G72" t="n">
-        <v>154769.8518583108</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2989,15 @@
         <v>299994.4526</v>
       </c>
       <c r="G73" t="n">
-        <v>154769.8518583108</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3019,15 @@
         <v>49736.9999</v>
       </c>
       <c r="G74" t="n">
-        <v>105032.8519583108</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3049,15 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>105132.8519583108</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3079,15 @@
         <v>9630.833199999999</v>
       </c>
       <c r="G76" t="n">
-        <v>105132.8519583108</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3109,15 @@
         <v>4621.3822</v>
       </c>
       <c r="G77" t="n">
-        <v>100511.4697583109</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3139,15 @@
         <v>9630.833199999999</v>
       </c>
       <c r="G78" t="n">
-        <v>100511.4697583109</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3169,15 @@
         <v>77985.7466</v>
       </c>
       <c r="G79" t="n">
-        <v>178497.2163583108</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3199,15 @@
         <v>57430.5972</v>
       </c>
       <c r="G80" t="n">
-        <v>178497.2163583108</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3229,15 @@
         <v>4613.3586</v>
       </c>
       <c r="G81" t="n">
-        <v>178497.2163583108</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3259,15 @@
         <v>11500.3354</v>
       </c>
       <c r="G82" t="n">
-        <v>189997.5517583108</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3289,15 @@
         <v>9732.654500000001</v>
       </c>
       <c r="G83" t="n">
-        <v>180264.8972583108</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3319,15 @@
         <v>2889.4193</v>
       </c>
       <c r="G84" t="n">
-        <v>180264.8972583108</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3349,15 @@
         <v>142263.9802</v>
       </c>
       <c r="G85" t="n">
-        <v>38000.91705831085</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3379,15 @@
         <v>45928.0614</v>
       </c>
       <c r="G86" t="n">
-        <v>38000.91705831085</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3409,15 @@
         <v>165746</v>
       </c>
       <c r="G87" t="n">
-        <v>38000.91705831085</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3439,15 @@
         <v>8632.2583</v>
       </c>
       <c r="G88" t="n">
-        <v>46633.17535831085</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3469,15 @@
         <v>220358.2279</v>
       </c>
       <c r="G89" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3499,15 @@
         <v>32622.1212</v>
       </c>
       <c r="G90" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3529,15 @@
         <v>27600</v>
       </c>
       <c r="G91" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3559,15 @@
         <v>37242.8307</v>
       </c>
       <c r="G92" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3589,15 @@
         <v>5641.0514</v>
       </c>
       <c r="G93" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3619,15 @@
         <v>124538.281</v>
       </c>
       <c r="G94" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3649,15 @@
         <v>400000</v>
       </c>
       <c r="G95" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3679,15 @@
         <v>41940.57</v>
       </c>
       <c r="G96" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3709,15 @@
         <v>19600</v>
       </c>
       <c r="G97" t="n">
-        <v>-173725.0525416891</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3739,15 @@
         <v>257000</v>
       </c>
       <c r="G98" t="n">
-        <v>-430725.0525416891</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3769,15 @@
         <v>18800</v>
       </c>
       <c r="G99" t="n">
-        <v>-449525.0525416891</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,24 +3799,21 @@
         <v>90120.6275</v>
       </c>
       <c r="G100" t="n">
-        <v>-539645.6800416892</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
         <v>12.26</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3721,24 +3835,19 @@
         <v>21000</v>
       </c>
       <c r="G101" t="n">
-        <v>-518645.6800416892</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3760,22 +3869,19 @@
         <v>250773.532</v>
       </c>
       <c r="G102" t="n">
-        <v>-769419.2120416892</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,22 +3903,19 @@
         <v>128248.3902</v>
       </c>
       <c r="G103" t="n">
-        <v>-769419.2120416892</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
